--- a/InputFiles/INS/TC04_INS_FocusArea-NoFocusArea.xlsx
+++ b/InputFiles/INS/TC04_INS_FocusArea-NoFocusArea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEFD8B3-CA46-434A-8A39-F65C6DA503AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895AA94-AF08-D747-96E2-DE213A185528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37220" yWindow="920" windowWidth="35160" windowHeight="24000" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="8660" yWindow="840" windowWidth="25800" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,123 +72,6 @@
   </si>
   <si>
     <t>SELECT DISTINCT
-    COUNT(DISTINCT prg.program_id) AS "Programs",
-    COUNT(DISTINCT prj.project_id) AS "Projects",
-    COUNT(DISTINCT gnt.grant_id) AS "Grants",
-    COUNT(DISTINCT pub.pmid) AS "Publications"
-FROM 
-    df_program prg
-LEFT JOIN 
-    df_project prj ON prg.program_id = prj."program.program_id"
-LEFT JOIN 
-    df_grant gnt ON prj.project_id = gnt."project.project_id"
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
-WHERE 
-    prg.focus_area = 'No Focus Area';</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT 
-    prg.program_name AS "Program",
-    CASE 
-        WHEN prg.program_link = 'https://cibmtr.org/' THEN 'CIBMTR (Data Resource)'
-        WHEN prg.program_link = 'https://itcr.cancer.gov/about-itcr' THEN 'ITCR'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/barretts-esophagus-translational-research-network-betrnet' THEN 'BETRNet'
-        WHEN prg.program_link = 'https://www.cancer.gov/ccg/research/genome-sequencing/cgci' THEN 'CGCI'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/cancer-prevention-clinical-trials-network-cp-ctnet' THEN 'CP-CTNet'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/cancer-prevention-interception-targeted-agent-discovery-program' THEN 'CAP-IT'
-        WHEN prg.program_link = 'https://www.cancer.gov/about-nci/organization/dcb/research-programs/csbc' THEN 'CSBC'
-        WHEN prg.program_link = 'https://www.cancer.gov/about-nci/organization/dcb/research-programs/ccbir' THEN 'CCBIR'
-        WHEN prg.program_link = 'https://sennetconsortium.org/about-2/' THEN 'SenNET'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/translational-liver-cancer-tlc-consortium' THEN 'TLC'
-        WHEN prg.program_link = 'https://enicto.bsc.gwu.edu/web/enicto' THEN 'ENICTO'
-        WHEN prg.program_link = 'https://docs.gdc.cancer.gov/Encyclopedia/pages/Genomic_Data_Analysis_Network/' THEN 'GDAN'
-        WHEN prg.program_link = 'https://commonfund.nih.gov/idg' THEN 'IDG'
-        WHEN prg.program_link = 'https://medoc.bsc.gwu.edu/web/medoc' THEN 'Metabolic Dysregulation and Cancer Risk Program'
-        WHEN prg.program_link = 'https://www.precinctnetwork.org/' THEN 'PRECINCT'
-        WHEN prg.program_link = 'https://www.nci-psrc.org/index.html#Home' THEN 'PSRC'
-        WHEN prg.program_link = 'https://healthcaredelivery.cancer.gov/prospr/' THEN 'PROSPR'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/small-cell-lung-cancer-sclc-consortium' THEN 'SCLC'
-        WHEN prg.program_link = 'https://www.chernobyltissuebank.com/' THEN 'THE CHERNOBYL TISSUE BANK - COORDINATING CENTER'
-        WHEN prg.program_link = 'https://www.cancer.gov/types/lung/research/alechmist-launch-qa' THEN 'ALCHEMIST'
-        WHEN prg.program_link = 'https://edrn.nci.nih.gov/' THEN 'EDRN'
-        WHEN prg.program_link = 'https://ctep.cancer.gov/initiativesprograms/etctn.htm' THEN 'ETCTN'
-        WHEN prg.program_link = 'https://www.tbelprogram.org/index.html' THEN 'TBEL'
-        ELSE prg.program_link
-    END  AS "Website",
-    prg.focus_area AS "Focus Area",
-    prg.cancer_type AS "Cancer Type",
-    CASE 
-        WHEN prg.data_link = 'https://cibmtr.org/CIBMTR/Resources/Publicly-Available-Datasets#' THEN 'CIBMTR (Data Resource)'
-        WHEN prg.data_link = 'https://itcr.cancer.gov/informatics-tools' THEN 'ITCR'
-        WHEN prg.data_link = 'https://www.vumc.org/cqs/statistical-data-centers' THEN 'BETRNet'
-        WHEN prg.data_link = 'https://portal.gdc.cancer.gov/exploration?filters=%7B%22op%22%3A%22and%22%2C%22content%22%3A%5B%7B%22op%22%3A%22in%22%2C%22content%22%3A%7B%22field%22%3A%22cases.project.program.name%22%2C%22value%22%3A%5B%22CGCI%22%5D%7D%7D%5D%7D' THEN 'CGCI'
-        WHEN prg.program_name = 'Cancer Systems Biology Consortium (CSBC)' THEN 'CSBC'
-        WHEN prg.data_link = 'https://www.cp-ctnet-dmacc.org/public/program-resources/' THEN 'CP-CTNet'
-        WHEN prg.program_name = 'Cellular Cancer Biology Imaging Research' THEN 'CCBIR'
-        WHEN prg.data_link = 'https://data.sennetconsortium.org/search?size=n_10000_n&amp;sort%5B0%5D%5Bfield%5D=last_modified_timestamp&amp;sort%5B0%5D%5Bdirection%5D=desc' THEN 'SenNET'
-        WHEN prg.data_link = 'https://enicto.bsc.gwu.edu/web/enicto/coordinating-center' THEN 'ENICTO'
-        WHEN prg.data_link = 'https://druggablegenome.net/DataTools' THEN 'IDG'
-        WHEN prg.data_link = 'https://caninecommons.cancer.gov/#/' THEN 'PRECINCT'
-        WHEN prg.data_link = 'https://www.nci-psrc.org/team_MDACC.html' THEN 'PSRC'
-        WHEN prg.data_link = 'https://healthcaredelivery.cancer.gov/prospr/datashare/' THEN 'PROSPR'
-        WHEN prg.data_link = 'https://www.mskcc.org/research-programs/nci-small-cell-lung-cancer-consortium/cellminer-sclc' THEN 'SCLC'
-        WHEN prg.data_link = 'https://edrn.nci.nih.gov/data-and-resources/data/' THEN 'EDRN'
-        ELSE prg.data_link
-    END AS "Data Location Details"
-FROM 
-    df_program prg
-WHERE 
-    prg.focus_area = 'No Focus Area'
-ORDER BY 
-    prg.program_name ASC;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    gnt.grant_id AS "Grant ID", 
-    prj.project_id AS "Project",
-    gnt.grant_title AS "Grant Title",
-    gnt.principal_investigators AS "Principal Investigators",
-    gnt.program_officers AS "Program Officers",
-    gnt.fiscal_year AS "Fiscal Year",
-    gnt.project_end_date AS "Project End Date"
-FROM 
-    df_grant gnt
-LEFT JOIN 
-    df_project prj ON gnt."project.project_id" = prj.project_id
-LEFT JOIN 
-    df_program prg ON prj."program.program_id" = prg.program_id
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
-WHERE 
-    prg.focus_area = 'No Focus Area'
-ORDER BY 
-    gnt.grant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prj.project_id AS "Project ID", 
-    prj.project_title AS "Project Title",
-    prj.org_name AS "Organization",
-    prj.project_start_date AS "Project Start Date",
-    prj.project_end_date AS "Project End Date"
-FROM 
-    df_project prj
-LEFT JOIN 
-    df_program prg ON prj."program.program_id" = prg.program_id
-LEFT JOIN 
-    df_grant gnt ON prj.project_id = gnt."project.project_id"
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
-WHERE 
-    prg.focus_area IN ('No Focus Area')
-ORDER BY 
-    prj.project_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
     pub.pmid AS "PubMed ID", 
     pub.title AS "Title",
     pub.authors AS "Authors",
@@ -209,26 +92,100 @@
 LEFT JOIN 
     df_grant gnt ON prj.project_id = gnt."project.project_id"
 WHERE 
-    prg.focus_area IN ('No Focus Area')
+  prg.focus_area LIKE '%No Focus Area%'
 ORDER BY 
-    pub.pmid ASC
+    lower(pub.pmid) ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    gnt.grant_id AS "Grant ID", 
+    prj.project_id AS "Project",
+    gnt.grant_title AS "Grant Title",
+    gnt.principal_investigators AS "Principal Investigators",
+    gnt.program_officers AS "Program Officers",
+    gnt.fiscal_year AS "Fiscal Year",
+    gnt.project_end_date AS "Project End Date"
+FROM 
+    df_grant gnt
+LEFT JOIN 
+    df_project prj ON gnt."project.project_id" = prj.project_id
+LEFT JOIN 
+    df_program prg ON prj."program.program_id" = prg.program_id
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
+WHERE 
+    prg.focus_area  LIKE '%No Focus Area%'
+ORDER BY 
+    lower(gnt.grant_id) ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prj.project_id AS "Project ID", 
+    prj.project_title AS "Project Title",
+    prj.org_name AS "Organization",
+    prj.project_start_date AS "Project Start Date",
+    prj.project_end_date AS "Project End Date"
+FROM 
+    df_project prj
+LEFT JOIN 
+    df_program prg ON prj."program.program_id" = prg.program_id
+LEFT JOIN 
+    df_grant gnt ON prj.project_id = gnt."project.project_id"
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
+WHERE 
+    prg.focus_area LIKE '%No Focus Area%'
+ORDER BY 
+    lower(prj.project_id) ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    COUNT(DISTINCT prg.program_id) AS "Programs",
+    COUNT(DISTINCT prj.project_id) AS "Projects",
+    COUNT(DISTINCT gnt.grant_id) AS "Grants",
+    COUNT(DISTINCT pub.pmid) AS "Publications"
+FROM 
+    df_program prg
+LEFT JOIN 
+    df_project prj ON prg.program_id = prj."program.program_id"
+LEFT JOIN 
+    df_grant gnt ON prj.project_id = gnt."project.project_id"
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
+WHERE 
+    prg.focus_area LIKE '%No Focus Area%'</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 
+    prg.program_name AS "Program",
+  CASE
+    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
+        ELSE prg.program_link
+    END  AS "Website",
+    prg.focus_area AS "Focus Area",
+    prg.cancer_type AS "Cancer Type",
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        ELSE prg.data_link
+    END AS "Data Location Details"
+FROM 
+    df_program prg
+WHERE 
+    prg.focus_area LIKE '%No Focus Area%'
+ORDER BY 
+    lower(prg.program_name) ASC;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -281,14 +238,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -665,8 +619,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -674,8 +628,8 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -683,8 +637,8 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -696,7 +650,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
